--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -7,7 +7,8 @@
     <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
-    <sheet name="ActionConfigProto" sheetId="6" r:id="rId1"/>
+    <sheet name="修改属性类行为" sheetId="6" r:id="rId1"/>
+    <sheet name="伤害类行为" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -38,15 +39,36 @@
     <t>Type</t>
   </si>
   <si>
+    <t>#Desc</t>
+  </si>
+  <si>
+    <t>ActionParams</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
     <t>int</t>
   </si>
   <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ActionParam</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
+    <t>$type</t>
+  </si>
+  <si>
+    <t>*ModifyProperties</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -54,6 +76,36 @@
   </si>
   <si>
     <t>行为类型</t>
+  </si>
+  <si>
+    <t>行为描述</t>
+  </si>
+  <si>
+    <t>修改属性名</t>
+  </si>
+  <si>
+    <t>修改属性值</t>
+  </si>
+  <si>
+    <t>修改属性行为</t>
+  </si>
+  <si>
+    <t>疾跑，移动速度加50%</t>
+  </si>
+  <si>
+    <t>移动速度</t>
+  </si>
+  <si>
+    <t>AdditionalDamage</t>
+  </si>
+  <si>
+    <t>附加伤害</t>
+  </si>
+  <si>
+    <t>伤害行为</t>
+  </si>
+  <si>
+    <t>英勇打击，附加100点伤害</t>
   </si>
 </sst>
 </file>
@@ -225,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -241,6 +293,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +615,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,16 +639,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -605,117 +663,132 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1043,96 +1116,293 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="12.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>4</v>
+    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="13"/>
+    <row r="3" s="3" customFormat="1" spans="1:7">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:2">
-      <c r="A4" s="12" t="s">
+    <row r="4" s="4" customFormat="1" spans="1:7">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="15"/>
     </row>
-    <row r="5" s="4" customFormat="1" spans="1:3">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>8</v>
+    <row r="5" s="5" customFormat="1" spans="1:7">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" s="5" customFormat="1"/>
-    <row r="7" s="5" customFormat="1"/>
-    <row r="8" s="5" customFormat="1"/>
-    <row r="9" s="5" customFormat="1"/>
-    <row r="10" s="5" customFormat="1"/>
-    <row r="11" s="5" customFormat="1"/>
-    <row r="12" s="5" customFormat="1"/>
-    <row r="13" s="5" customFormat="1"/>
-    <row r="14" s="5" customFormat="1"/>
-    <row r="15" s="5" customFormat="1"/>
-    <row r="16" s="5" customFormat="1"/>
-    <row r="17" s="5" customFormat="1"/>
-    <row r="18" s="5" customFormat="1"/>
-    <row r="19" s="5" customFormat="1"/>
-    <row r="20" s="5" customFormat="1"/>
-    <row r="21" s="5" customFormat="1"/>
-    <row r="22" s="5" customFormat="1"/>
-    <row r="23" s="5" customFormat="1"/>
-    <row r="24" s="5" customFormat="1"/>
-    <row r="25" s="5" customFormat="1"/>
-    <row r="26" s="5" customFormat="1"/>
-    <row r="27" s="5" customFormat="1"/>
-    <row r="28" s="5" customFormat="1"/>
-    <row r="29" s="5" customFormat="1"/>
-    <row r="30" s="5" customFormat="1"/>
-    <row r="31" s="5" customFormat="1"/>
-    <row r="32" s="5" customFormat="1"/>
-    <row r="33" s="5" customFormat="1"/>
-    <row r="34" s="5" customFormat="1"/>
+    <row r="6" s="6" customFormat="1" spans="2:7">
+      <c r="B6" s="6">
+        <v>1001</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="6:7">
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="6">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="8" s="6" customFormat="1"/>
+    <row r="9" s="6" customFormat="1"/>
+    <row r="10" s="6" customFormat="1"/>
+    <row r="11" s="6" customFormat="1"/>
+    <row r="12" s="6" customFormat="1"/>
+    <row r="13" s="6" customFormat="1"/>
+    <row r="14" s="6" customFormat="1"/>
+    <row r="15" s="6" customFormat="1"/>
+    <row r="16" s="6" customFormat="1"/>
+    <row r="17" s="6" customFormat="1"/>
+    <row r="18" s="6" customFormat="1"/>
+    <row r="19" s="6" customFormat="1"/>
+    <row r="20" s="6" customFormat="1"/>
+    <row r="21" s="6" customFormat="1"/>
+    <row r="22" s="6" customFormat="1"/>
+    <row r="23" s="6" customFormat="1"/>
+    <row r="24" s="6" customFormat="1"/>
+    <row r="25" s="6" customFormat="1"/>
+    <row r="26" s="6" customFormat="1"/>
+    <row r="27" s="6" customFormat="1"/>
+    <row r="28" s="6" customFormat="1"/>
+    <row r="29" s="6" customFormat="1"/>
+    <row r="30" s="6" customFormat="1"/>
+    <row r="31" s="6" customFormat="1"/>
+    <row r="32" s="6" customFormat="1"/>
+    <row r="33" s="6" customFormat="1"/>
+    <row r="34" s="6" customFormat="1"/>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="F4:G4"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="E4" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B6" s="6">
+        <v>1002</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" s="6" customFormat="1" ht="16.5"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="修改属性类行为" sheetId="6" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>移动速度</t>
+  </si>
+  <si>
+    <t>力量祝福，增加200点攻击</t>
+  </si>
+  <si>
+    <t>AtkAdd</t>
   </si>
   <si>
     <t>AdditionalDamage</t>
@@ -1119,7 +1125,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1127,7 +1133,7 @@
     <col min="1" max="1" width="12.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="16.75" style="6" customWidth="1"/>
     <col min="3" max="3" width="16.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="22.875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="16" customWidth="1"/>
     <col min="5" max="5" width="13.625" style="16" customWidth="1"/>
     <col min="6" max="6" width="22.5" style="16" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="16" customWidth="1"/>
@@ -1237,12 +1243,24 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="6:7">
+    <row r="7" s="6" customFormat="1" spans="2:7">
+      <c r="B7" s="6">
+        <v>1002</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G7" s="6">
-        <v>6000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" s="6" customFormat="1"/>
@@ -1290,7 +1308,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1355,7 +1373,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" ht="16.5" spans="1:6">
@@ -1375,21 +1393,21 @@
         <v>15</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" s="6" customFormat="1" ht="16.5" spans="2:6">
       <c r="B6" s="6">
-        <v>1002</v>
+        <v>2002</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6">
         <v>100</v>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -4,11 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="修改属性类行为" sheetId="6" r:id="rId1"/>
     <sheet name="伤害类行为" sheetId="7" r:id="rId2"/>
+    <sheet name="冲锋类行为" sheetId="8" r:id="rId3"/>
+    <sheet name="子技能行为" sheetId="9" r:id="rId4"/>
+    <sheet name="吸引拉扯行为" sheetId="10" r:id="rId5"/>
+    <sheet name="击飞行为" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -112,6 +116,60 @@
   </si>
   <si>
     <t>英勇打击，附加100点伤害</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>移动到目标行为</t>
+  </si>
+  <si>
+    <t>冲锋，冲撞目标并将碰到的单位眩晕</t>
+  </si>
+  <si>
+    <t>SubCastConfigId</t>
+  </si>
+  <si>
+    <t>子技能编号</t>
+  </si>
+  <si>
+    <t>释放子技能行为</t>
+  </si>
+  <si>
+    <t>AttractRange</t>
+  </si>
+  <si>
+    <t>AttractSpeed</t>
+  </si>
+  <si>
+    <t>吸引范围</t>
+  </si>
+  <si>
+    <t>吸引速度</t>
+  </si>
+  <si>
+    <t>吸引行为</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>BuffConfigId</t>
+  </si>
+  <si>
+    <t>撞击范围</t>
+  </si>
+  <si>
+    <t>击飞朝向</t>
+  </si>
+  <si>
+    <t>附加buff编号</t>
+  </si>
+  <si>
+    <t>击飞行为</t>
   </si>
 </sst>
 </file>
@@ -746,7 +804,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,9 +821,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,6 +847,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1124,27 +1188,27 @@
   <sheetPr/>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="6" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="12.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="17" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="18" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="18" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1153,17 +1217,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1172,39 +1236,39 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" s="5" customFormat="1" spans="1:7">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1223,73 +1287,73 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="2:7">
-      <c r="B6" s="6">
+    <row r="6" s="17" customFormat="1" spans="2:7">
+      <c r="B6" s="17">
         <v>1001</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="17">
         <v>6000</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="2:7">
-      <c r="B7" s="6">
+    <row r="7" s="17" customFormat="1" spans="2:7">
+      <c r="B7" s="17">
         <v>1002</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="8" s="6" customFormat="1"/>
-    <row r="9" s="6" customFormat="1"/>
-    <row r="10" s="6" customFormat="1"/>
-    <row r="11" s="6" customFormat="1"/>
-    <row r="12" s="6" customFormat="1"/>
-    <row r="13" s="6" customFormat="1"/>
-    <row r="14" s="6" customFormat="1"/>
-    <row r="15" s="6" customFormat="1"/>
-    <row r="16" s="6" customFormat="1"/>
-    <row r="17" s="6" customFormat="1"/>
-    <row r="18" s="6" customFormat="1"/>
-    <row r="19" s="6" customFormat="1"/>
-    <row r="20" s="6" customFormat="1"/>
-    <row r="21" s="6" customFormat="1"/>
-    <row r="22" s="6" customFormat="1"/>
-    <row r="23" s="6" customFormat="1"/>
-    <row r="24" s="6" customFormat="1"/>
-    <row r="25" s="6" customFormat="1"/>
-    <row r="26" s="6" customFormat="1"/>
-    <row r="27" s="6" customFormat="1"/>
-    <row r="28" s="6" customFormat="1"/>
-    <row r="29" s="6" customFormat="1"/>
-    <row r="30" s="6" customFormat="1"/>
-    <row r="31" s="6" customFormat="1"/>
-    <row r="32" s="6" customFormat="1"/>
-    <row r="33" s="6" customFormat="1"/>
-    <row r="34" s="6" customFormat="1"/>
+    <row r="8" s="17" customFormat="1"/>
+    <row r="9" s="17" customFormat="1"/>
+    <row r="10" s="17" customFormat="1"/>
+    <row r="11" s="17" customFormat="1"/>
+    <row r="12" s="17" customFormat="1"/>
+    <row r="13" s="17" customFormat="1"/>
+    <row r="14" s="17" customFormat="1"/>
+    <row r="15" s="17" customFormat="1"/>
+    <row r="16" s="17" customFormat="1"/>
+    <row r="17" s="17" customFormat="1"/>
+    <row r="18" s="17" customFormat="1"/>
+    <row r="19" s="17" customFormat="1"/>
+    <row r="20" s="17" customFormat="1"/>
+    <row r="21" s="17" customFormat="1"/>
+    <row r="22" s="17" customFormat="1"/>
+    <row r="23" s="17" customFormat="1"/>
+    <row r="24" s="17" customFormat="1"/>
+    <row r="25" s="17" customFormat="1"/>
+    <row r="26" s="17" customFormat="1"/>
+    <row r="27" s="17" customFormat="1"/>
+    <row r="28" s="17" customFormat="1"/>
+    <row r="29" s="17" customFormat="1"/>
+    <row r="30" s="17" customFormat="1"/>
+    <row r="31" s="17" customFormat="1"/>
+    <row r="32" s="17" customFormat="1"/>
+    <row r="33" s="17" customFormat="1"/>
+    <row r="34" s="17" customFormat="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:G1"/>
@@ -1308,7 +1372,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1321,10 +1385,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1333,16 +1397,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1351,36 +1415,36 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" s="5" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -1396,24 +1460,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B6" s="6">
+    <row r="6" s="17" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B6" s="17">
         <v>2002</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" ht="16.5"/>
+    <row r="7" s="17" customFormat="1" ht="16.5"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E1:F1"/>
@@ -1423,4 +1487,517 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="12" style="16" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="16" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="16">
+        <v>3001</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="16">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="19.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6">
+        <v>4001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>110002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="14.375" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6">
+        <v>5001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="8.875" customWidth="1"/>
+    <col min="5" max="8" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" s="4" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6">
+        <v>6001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>40005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="修改属性类行为" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>修改属性行为</t>
+  </si>
+  <si>
+    <t>占位</t>
   </si>
   <si>
     <t>疾跑，移动速度加50%</t>
@@ -804,7 +807,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -818,9 +821,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,14 +848,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1186,29 +1180,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="17" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="17" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="18" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="12.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24.25" style="15" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1217,17 +1211,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1236,124 +1230,111 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:7">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" spans="2:7">
-      <c r="B6" s="17">
+    <row r="6" s="15" customFormat="1" spans="2:5">
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" s="15" customFormat="1" spans="2:7">
+      <c r="B7" s="15">
         <v>1001</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="D7" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="17">
+      <c r="F7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="15">
         <v>6000</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" spans="2:7">
-      <c r="B7" s="17">
+    <row r="8" s="15" customFormat="1" spans="2:7">
+      <c r="B8" s="15">
         <v>1002</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="17" t="s">
+      <c r="D8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="17">
+      <c r="F8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="15">
         <v>200</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1"/>
-    <row r="9" s="17" customFormat="1"/>
-    <row r="10" s="17" customFormat="1"/>
-    <row r="11" s="17" customFormat="1"/>
-    <row r="12" s="17" customFormat="1"/>
-    <row r="13" s="17" customFormat="1"/>
-    <row r="14" s="17" customFormat="1"/>
-    <row r="15" s="17" customFormat="1"/>
-    <row r="16" s="17" customFormat="1"/>
-    <row r="17" s="17" customFormat="1"/>
-    <row r="18" s="17" customFormat="1"/>
-    <row r="19" s="17" customFormat="1"/>
-    <row r="20" s="17" customFormat="1"/>
-    <row r="21" s="17" customFormat="1"/>
-    <row r="22" s="17" customFormat="1"/>
-    <row r="23" s="17" customFormat="1"/>
-    <row r="24" s="17" customFormat="1"/>
-    <row r="25" s="17" customFormat="1"/>
-    <row r="26" s="17" customFormat="1"/>
-    <row r="27" s="17" customFormat="1"/>
-    <row r="28" s="17" customFormat="1"/>
-    <row r="29" s="17" customFormat="1"/>
-    <row r="30" s="17" customFormat="1"/>
-    <row r="31" s="17" customFormat="1"/>
-    <row r="32" s="17" customFormat="1"/>
-    <row r="33" s="17" customFormat="1"/>
-    <row r="34" s="17" customFormat="1"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="E1:G1"/>
@@ -1385,10 +1366,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1397,16 +1378,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1415,69 +1396,69 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" s="17" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B6" s="17">
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" s="15" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B6" s="15">
         <v>2002</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="D6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="15">
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" ht="16.5"/>
+    <row r="7" s="15" customFormat="1" ht="16.5"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E1:F1"/>
@@ -1494,26 +1475,26 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="16" customWidth="1"/>
-    <col min="2" max="2" width="12" style="16" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="16" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="16" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1522,16 +1503,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1540,65 +1521,65 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>3001</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="16">
+      <c r="D6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="14">
         <v>12</v>
       </c>
     </row>
@@ -1633,10 +1614,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1645,16 +1626,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1663,49 +1644,49 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A5" s="6" t="s">
+      <c r="F4" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1713,13 +1694,13 @@
         <v>4001</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>110002</v>
+        <v>120001</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1730,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1761,17 +1742,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1780,57 +1761,57 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A5" s="6" t="s">
+      <c r="G4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:7">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1838,10 +1819,10 @@
         <v>5001</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -1880,10 +1861,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1892,18 +1873,18 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1912,63 +1893,63 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="B3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>39</v>
+      <c r="F4" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A5" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:8">
+      <c r="A5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="G5" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -1976,10 +1957,10 @@
         <v>6001</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6">
         <v>3</v>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="修改属性类行为" sheetId="6" r:id="rId1"/>
-    <sheet name="伤害类行为" sheetId="7" r:id="rId2"/>
-    <sheet name="冲锋类行为" sheetId="8" r:id="rId3"/>
-    <sheet name="子技能行为" sheetId="9" r:id="rId4"/>
-    <sheet name="吸引拉扯行为" sheetId="10" r:id="rId5"/>
-    <sheet name="击飞行为" sheetId="11" r:id="rId6"/>
+    <sheet name="修改属性类行为1000" sheetId="6" r:id="rId1"/>
+    <sheet name="伤害类行为2000" sheetId="7" r:id="rId2"/>
+    <sheet name="冲锋类行为3000" sheetId="8" r:id="rId3"/>
+    <sheet name="子技能行为4000" sheetId="9" r:id="rId4"/>
+    <sheet name="吸引拉扯行为5000" sheetId="10" r:id="rId5"/>
+    <sheet name="击飞行为6000" sheetId="11" r:id="rId6"/>
+    <sheet name="创建陷阱7000" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -109,6 +110,9 @@
     <t>AtkAdd</t>
   </si>
   <si>
+    <t>战吼，增加友方308点攻击强度</t>
+  </si>
+  <si>
     <t>AdditionalDamage</t>
   </si>
   <si>
@@ -121,6 +125,9 @@
     <t>英勇打击，附加100点伤害</t>
   </si>
   <si>
+    <t>奉献，附加200点神圣伤害</t>
+  </si>
+  <si>
     <t>Speed</t>
   </si>
   <si>
@@ -173,6 +180,15 @@
   </si>
   <si>
     <t>击飞行为</t>
+  </si>
+  <si>
+    <t>陷阱范围</t>
+  </si>
+  <si>
+    <t>陷阱行为</t>
+  </si>
+  <si>
+    <t>奉献</t>
   </si>
 </sst>
 </file>
@@ -807,7 +823,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,6 +838,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1180,29 +1199,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="15" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="24.25" style="15" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="15" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="12.75" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1211,17 +1230,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1230,39 +1249,39 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1281,58 +1300,78 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="15" customFormat="1" spans="2:5">
-      <c r="B6" s="15">
+    <row r="6" s="16" customFormat="1" spans="2:5">
+      <c r="B6" s="16">
         <v>0</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="15" customFormat="1" spans="2:7">
-      <c r="B7" s="15">
+    <row r="7" s="16" customFormat="1" spans="2:7">
+      <c r="B7" s="16">
         <v>1001</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="16">
         <v>6000</v>
       </c>
     </row>
-    <row r="8" s="15" customFormat="1" spans="2:7">
-      <c r="B8" s="15">
+    <row r="8" s="16" customFormat="1" spans="2:7">
+      <c r="B8" s="16">
         <v>1002</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="16">
         <v>200</v>
+      </c>
+    </row>
+    <row r="9" s="16" customFormat="1" spans="2:7">
+      <c r="B9" s="16">
+        <v>1003</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="16">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1353,7 +1392,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
@@ -1366,10 +1405,10 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1378,16 +1417,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1396,36 +1435,36 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>25</v>
+      <c r="F4" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1438,27 +1477,43 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" s="15" customFormat="1" ht="16.5" spans="2:6">
-      <c r="B6" s="15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" s="16" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B6" s="16">
         <v>2002</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="D6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="15" customFormat="1" ht="16.5"/>
+    <row r="7" s="16" customFormat="1" ht="16.5" spans="2:6">
+      <c r="B7" s="16">
+        <v>2003</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="16">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E1:F1"/>
@@ -1481,20 +1536,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12" style="14" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="14" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="9.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="12" style="15" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="15" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="15" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1503,16 +1558,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1521,36 +1576,36 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>29</v>
+      <c r="F4" s="14" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1567,19 +1622,19 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="14">
+      <c r="B6" s="15">
         <v>3001</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="C6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="15">
         <v>12</v>
       </c>
     </row>
@@ -1600,24 +1655,25 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="13.375" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="19.375" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1626,16 +1682,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1644,36 +1700,36 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:6">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="F4" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1686,20 +1742,20 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6">
+      <c r="B6" s="5">
         <v>4001</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6">
+      <c r="C6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="5">
         <v>120001</v>
       </c>
     </row>
@@ -1720,20 +1776,22 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="5" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="1" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="14.375" style="5" customWidth="1"/>
+    <col min="6" max="7" width="15.5" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1742,17 +1800,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1761,41 +1819,41 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:7">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:7">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:7">
-      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1808,26 +1866,26 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6">
+      <c r="B6" s="5">
         <v>5001</v>
       </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6">
+      <c r="C6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="5">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1848,23 +1906,24 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="8.875" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="4" max="4" width="8.875" customWidth="1"/>
-    <col min="5" max="8" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="5" customWidth="1"/>
+    <col min="5" max="8" width="14.625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1873,18 +1932,18 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1893,44 +1952,44 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A4" s="11" t="s">
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:8">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="E4" s="12" t="s">
+      <c r="B4" s="12"/>
+      <c r="E4" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>40</v>
+      <c r="F4" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:8">
-      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1943,32 +2002,32 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6">
+      <c r="B6" s="5">
         <v>6001</v>
       </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6">
+      <c r="C6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="5">
         <v>3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="5">
         <v>40005</v>
       </c>
     </row>
@@ -1981,4 +2040,139 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="10.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:7">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="E4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="5">
+        <v>7001</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>40005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809" activeTab="6"/>
+    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="修改属性类行为1000" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="55">
   <si>
     <t>##var</t>
   </si>
@@ -101,34 +101,43 @@
     <t>疾跑，移动速度加50%</t>
   </si>
   <si>
+    <t>移动速度Pct</t>
+  </si>
+  <si>
+    <t>力量祝福，增加200点攻击</t>
+  </si>
+  <si>
+    <t>AtkAdd</t>
+  </si>
+  <si>
+    <t>战吼，增加友方308点攻击强度</t>
+  </si>
+  <si>
+    <t>减速，降低敌方移动速度50%</t>
+  </si>
+  <si>
+    <t>AdditionalDamage</t>
+  </si>
+  <si>
+    <t>附加伤害</t>
+  </si>
+  <si>
+    <t>伤害行为</t>
+  </si>
+  <si>
+    <t>英勇打击，附加100点伤害</t>
+  </si>
+  <si>
+    <t>奉献，附加200点神圣伤害</t>
+  </si>
+  <si>
+    <t>暴风雪，附加200点法术伤害</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
     <t>移动速度</t>
-  </si>
-  <si>
-    <t>力量祝福，增加200点攻击</t>
-  </si>
-  <si>
-    <t>AtkAdd</t>
-  </si>
-  <si>
-    <t>战吼，增加友方308点攻击强度</t>
-  </si>
-  <si>
-    <t>AdditionalDamage</t>
-  </si>
-  <si>
-    <t>附加伤害</t>
-  </si>
-  <si>
-    <t>伤害行为</t>
-  </si>
-  <si>
-    <t>英勇打击，附加100点伤害</t>
-  </si>
-  <si>
-    <t>奉献，附加200点神圣伤害</t>
-  </si>
-  <si>
-    <t>Speed</t>
   </si>
   <si>
     <t>移动到目标行为</t>
@@ -823,7 +832,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,8 +848,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -857,21 +866,27 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1199,10 +1214,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1260,22 +1275,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="6" t="s">
@@ -1331,7 +1346,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="16">
-        <v>6000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="8" s="16" customFormat="1" spans="2:7">
@@ -1372,6 +1387,26 @@
       </c>
       <c r="G9" s="16">
         <v>308</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="16">
+        <v>1004</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="16">
+        <v>-50000</v>
       </c>
     </row>
   </sheetData>
@@ -1389,22 +1424,24 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="22.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="18"/>
+    <col min="2" max="2" width="10.375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="18" customWidth="1"/>
+    <col min="4" max="4" width="29.5" style="18" customWidth="1"/>
+    <col min="5" max="5" width="15" style="18" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="18" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.5" spans="1:6">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1459,7 @@
       </c>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:6">
+    <row r="2" s="2" customFormat="1" spans="1:6">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -1440,27 +1477,27 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" s="3" customFormat="1" ht="16.5" spans="1:6">
+    <row r="3" s="3" customFormat="1" spans="1:6">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-    </row>
-    <row r="4" s="4" customFormat="1" ht="16.5" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:6">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="16.5" spans="1:6">
+      <c r="F4" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1477,40 +1514,57 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" s="16" customFormat="1" ht="16.5" spans="2:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" s="16" customFormat="1" spans="2:6">
       <c r="B6" s="16">
         <v>2002</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>28</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="16" customFormat="1" ht="16.5" spans="2:6">
+    <row r="7" s="16" customFormat="1" spans="2:6">
       <c r="B7" s="16">
         <v>2003</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F7" s="16">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" s="17" customFormat="1" spans="2:6">
+      <c r="B8" s="17">
+        <v>2004</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="17">
         <v>200</v>
       </c>
     </row>
@@ -1536,13 +1590,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="12" style="15" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="15" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="15" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="15" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="15" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="15"/>
+    <col min="1" max="1" width="9.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1586,19 +1640,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>31</v>
+      <c r="F4" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1618,23 +1672,23 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="15">
+      <c r="B6" s="12">
         <v>3001</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="C6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="12">
         <v>12</v>
       </c>
     </row>
@@ -1660,13 +1714,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1710,19 +1764,19 @@
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>34</v>
+      <c r="F4" s="15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1742,20 +1796,20 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="5">
+      <c r="B6" s="12">
         <v>4001</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="C6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="12">
         <v>120001</v>
       </c>
     </row>
@@ -1781,10 +1835,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="4" width="9" style="5"/>
-    <col min="5" max="5" width="14.375" style="5" customWidth="1"/>
-    <col min="6" max="7" width="15.5" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="4" width="9" style="12"/>
+    <col min="5" max="5" width="14.375" style="12" customWidth="1"/>
+    <col min="6" max="7" width="15.5" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1830,23 +1884,23 @@
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
+      <c r="B4" s="11"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -1866,26 +1920,26 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="5">
+      <c r="B6" s="12">
         <v>5001</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="C6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="12">
         <v>3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="12">
         <v>3</v>
       </c>
     </row>
@@ -1911,12 +1965,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="5" customWidth="1"/>
-    <col min="5" max="8" width="14.625" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="12" customWidth="1"/>
+    <col min="5" max="8" width="14.625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1964,25 +2018,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:8">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>42</v>
+      <c r="F4" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
@@ -2002,32 +2056,32 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="5">
+      <c r="B6" s="12">
         <v>6001</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="C6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="12">
         <v>3</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="12">
         <v>0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="12">
         <v>40005</v>
       </c>
     </row>
@@ -2047,8 +2101,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -2100,27 +2154,25 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:6">
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="E4" s="13" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="14" t="s">
-        <v>42</v>
+      <c r="F4" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2140,10 +2192,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2151,13 +2203,13 @@
         <v>7001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F6" s="5">
         <v>5</v>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809"/>
+    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修改属性类行为1000" sheetId="6" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>暴风雪，附加200点法术伤害</t>
+  </si>
+  <si>
+    <t>雷霆一击，对周围敌人造成500点伤害</t>
   </si>
   <si>
     <t>Speed</t>
@@ -832,7 +835,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -884,9 +887,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1216,8 +1216,8 @@
   <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1424,21 +1424,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="10.375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="18" customWidth="1"/>
-    <col min="4" max="4" width="29.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="15" style="18" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="18" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="9" style="17"/>
+    <col min="2" max="2" width="10.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="17" customWidth="1"/>
+    <col min="4" max="4" width="35.375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="15" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="17" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1477,23 +1477,21 @@
       </c>
       <c r="F2" s="9"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:6">
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
       <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="11"/>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1566,6 +1564,23 @@
       </c>
       <c r="F8" s="17">
         <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="17">
+        <v>2005</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="17">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -1652,7 +1667,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1672,7 +1687,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1680,13 +1695,13 @@
         <v>3001</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>35</v>
       </c>
       <c r="F6" s="12">
         <v>12</v>
@@ -1776,7 +1791,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1796,7 +1811,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1804,10 +1819,10 @@
         <v>4001</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="12">
         <v>120001</v>
@@ -1897,10 +1912,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -1920,10 +1935,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1931,10 +1946,10 @@
         <v>5001</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" s="12">
         <v>3</v>
@@ -2030,13 +2045,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
@@ -2056,13 +2071,13 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -2070,10 +2085,10 @@
         <v>6001</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="12">
         <v>3</v>
@@ -2169,10 +2184,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2192,10 +2207,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2203,13 +2218,13 @@
         <v>7001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="F6" s="5">
         <v>5</v>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="修改属性类行为1000" sheetId="6" r:id="rId1"/>
@@ -14,6 +14,9 @@
     <sheet name="吸引拉扯行为5000" sheetId="10" r:id="rId5"/>
     <sheet name="击飞行为6000" sheetId="11" r:id="rId6"/>
     <sheet name="创建陷阱7000" sheetId="12" r:id="rId7"/>
+    <sheet name="治疗类8000" sheetId="13" r:id="rId8"/>
+    <sheet name="复活类9000" sheetId="14" r:id="rId9"/>
+    <sheet name="驱散行为10000" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="71">
   <si>
     <t>##var</t>
   </si>
@@ -201,6 +204,51 @@
   </si>
   <si>
     <t>奉献</t>
+  </si>
+  <si>
+    <t>TreatValue</t>
+  </si>
+  <si>
+    <t>附加治疗</t>
+  </si>
+  <si>
+    <t>治疗行为</t>
+  </si>
+  <si>
+    <t>快速治疗术，回复150点生命值</t>
+  </si>
+  <si>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Mp</t>
+  </si>
+  <si>
+    <t>附加生命值</t>
+  </si>
+  <si>
+    <t>附加法力值</t>
+  </si>
+  <si>
+    <t>复活行为</t>
+  </si>
+  <si>
+    <t>复活术，复活玩家并获得1100生命值和1150法力值</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>负面效果类型</t>
+  </si>
+  <si>
+    <t>驱散个数</t>
+  </si>
+  <si>
+    <t>驱散行为</t>
+  </si>
+  <si>
+    <t>祛病术，移除友方一个疾病效果</t>
   </si>
 </sst>
 </file>
@@ -835,7 +883,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,20 +905,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -884,9 +938,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1222,14 +1273,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="16" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="12.75" style="18" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="18" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="18" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="18" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1245,17 +1296,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1264,33 +1315,33 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="9"/>
+      <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="17"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="6" t="s">
@@ -1315,97 +1366,97 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="16" customFormat="1" spans="2:5">
-      <c r="B6" s="16">
+    <row r="6" s="18" customFormat="1" spans="2:5">
+      <c r="B6" s="18">
         <v>0</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="16" customFormat="1" spans="2:7">
-      <c r="B7" s="16">
+    <row r="7" s="18" customFormat="1" spans="2:7">
+      <c r="B7" s="18">
         <v>1001</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="18">
         <v>50000</v>
       </c>
     </row>
-    <row r="8" s="16" customFormat="1" spans="2:7">
-      <c r="B8" s="16">
+    <row r="8" s="18" customFormat="1" spans="2:7">
+      <c r="B8" s="18">
         <v>1002</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="18">
         <v>200</v>
       </c>
     </row>
-    <row r="9" s="16" customFormat="1" spans="2:7">
-      <c r="B9" s="16">
+    <row r="9" s="18" customFormat="1" spans="2:7">
+      <c r="B9" s="18">
         <v>1003</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="18">
         <v>308</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="16">
+      <c r="B10" s="18">
         <v>1004</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="18">
         <v>-50000</v>
       </c>
     </row>
@@ -1421,24 +1472,151 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="29.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9" style="5"/>
+    <col min="6" max="6" width="12.875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:7">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="5">
+        <v>10001</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="2" width="10.375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="17" customWidth="1"/>
-    <col min="4" max="4" width="35.375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="15" style="17" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="17" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="10.375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="35.375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15" style="13" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1454,16 +1632,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1472,22 +1650,22 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="9"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1515,71 +1693,71 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" s="16" customFormat="1" spans="2:6">
-      <c r="B6" s="16">
+    <row r="6" s="18" customFormat="1" spans="2:6">
+      <c r="B6" s="18">
         <v>2002</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="16" customFormat="1" spans="2:6">
-      <c r="B7" s="16">
+    <row r="7" s="18" customFormat="1" spans="2:6">
+      <c r="B7" s="18">
         <v>2003</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="18">
         <v>200</v>
       </c>
     </row>
-    <row r="8" s="17" customFormat="1" spans="2:6">
-      <c r="B8" s="17">
+    <row r="8" s="13" customFormat="1" spans="2:6">
+      <c r="B8" s="13">
         <v>2004</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="13">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="17">
+      <c r="B9" s="13">
         <v>2005</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="13">
         <v>500</v>
       </c>
     </row>
@@ -1605,13 +1783,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1627,16 +1805,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1645,28 +1823,28 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="9"/>
+      <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1691,19 +1869,19 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>3001</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>12</v>
       </c>
     </row>
@@ -1729,13 +1907,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="15" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1751,16 +1929,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1769,28 +1947,28 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="9"/>
+      <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1815,16 +1993,16 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>4001</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>120001</v>
       </c>
     </row>
@@ -1850,10 +2028,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="14.375" style="12" customWidth="1"/>
-    <col min="6" max="7" width="15.5" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="1" max="4" width="9" style="14"/>
+    <col min="5" max="5" width="14.375" style="14" customWidth="1"/>
+    <col min="6" max="7" width="15.5" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1869,17 +2047,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1888,26 +2066,26 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="B3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="9"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1942,19 +2120,19 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>5001</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="14">
         <v>3</v>
       </c>
     </row>
@@ -1980,12 +2158,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="12" customWidth="1"/>
-    <col min="5" max="8" width="14.625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="14" customWidth="1"/>
+    <col min="5" max="8" width="14.625" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -2001,18 +2179,18 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2021,30 +2199,30 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="8"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:8">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="9"/>
+      <c r="E4" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="17" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2081,22 +2259,22 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>6001</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="14">
         <v>0</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="14">
         <v>40005</v>
       </c>
     </row>
@@ -2122,12 +2300,264 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="10.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="10.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:7">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:7">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="13">
+        <v>7001</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="13">
+        <v>5</v>
+      </c>
+      <c r="G6" s="13">
+        <v>40005</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="10.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="10.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11" style="5" customWidth="1"/>
+    <col min="3" max="3" width="12" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:5">
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:2">
+      <c r="A3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:6">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="5">
+        <v>8001</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="5">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="3" width="9" style="5"/>
+    <col min="4" max="4" width="47.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="5" customWidth="1"/>
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2144,17 +2574,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2163,31 +2593,31 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="9"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2207,30 +2637,30 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="5">
-        <v>7001</v>
+        <v>9001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F6" s="5">
-        <v>5</v>
+        <v>1100</v>
       </c>
       <c r="G6" s="5">
-        <v>40005</v>
+        <v>1150</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
@@ -140,6 +140,9 @@
     <t>雷霆一击，对周围敌人造成500点伤害</t>
   </si>
   <si>
+    <t>真言术：痛，对一个敌方单位21内总计造成1575点暗影伤害</t>
+  </si>
+  <si>
     <t>Speed</t>
   </si>
   <si>
@@ -236,9 +239,15 @@
     <t>复活术，复活玩家并获得1100生命值和1150法力值</t>
   </si>
   <si>
+    <t>IncludeSelf</t>
+  </si>
+  <si>
     <t>Count</t>
   </si>
   <si>
+    <t>是否包含自己</t>
+  </si>
+  <si>
     <t>负面效果类型</t>
   </si>
   <si>
@@ -249,6 +258,9 @@
   </si>
   <si>
     <t>祛病术，移除友方一个疾病效果</t>
+  </si>
+  <si>
+    <t>疾病</t>
   </si>
 </sst>
 </file>
@@ -1475,19 +1487,21 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9" style="5"/>
+    <col min="1" max="2" width="9" style="5"/>
+    <col min="3" max="3" width="12.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="29.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="12.875" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="5" max="5" width="10" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1530,7 +1544,7 @@
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:7">
+    <row r="4" s="4" customFormat="1" spans="1:8">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
@@ -1539,13 +1553,16 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" spans="1:7">
+      <c r="H4" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:8">
       <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
@@ -1562,37 +1579,43 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>70</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="5">
         <v>10001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="5">
+        <v>72</v>
+      </c>
+      <c r="F6" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="5">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1602,10 +1625,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1613,7 +1636,7 @@
     <col min="1" max="1" width="9" style="13"/>
     <col min="2" max="2" width="10.375" style="13" customWidth="1"/>
     <col min="3" max="3" width="15.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="35.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55.875" style="13" customWidth="1"/>
     <col min="5" max="5" width="15" style="13" customWidth="1"/>
     <col min="6" max="6" width="22.625" style="13" customWidth="1"/>
     <col min="7" max="16384" width="9" style="13"/>
@@ -1759,6 +1782,24 @@
       </c>
       <c r="F9" s="13">
         <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="13">
+        <v>2006</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="13">
+        <f>1575/21*3</f>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1886,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1865,7 +1906,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1873,13 +1914,13 @@
         <v>3001</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>37</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>36</v>
       </c>
       <c r="F6" s="14">
         <v>12</v>
@@ -1969,7 +2010,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1989,7 +2030,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1997,10 +2038,10 @@
         <v>4001</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="14">
         <v>120001</v>
@@ -2090,10 +2131,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2113,10 +2154,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2124,10 +2165,10 @@
         <v>5001</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F6" s="14">
         <v>3</v>
@@ -2223,13 +2264,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
@@ -2249,13 +2290,13 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -2263,10 +2304,10 @@
         <v>6001</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="14">
         <v>3</v>
@@ -2362,10 +2403,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2385,10 +2426,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2396,13 +2437,13 @@
         <v>7001</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>55</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>54</v>
       </c>
       <c r="F6" s="13">
         <v>5</v>
@@ -2491,7 +2532,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -2511,7 +2552,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -2519,13 +2560,13 @@
         <v>8001</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>59</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>58</v>
       </c>
       <c r="F6" s="5">
         <v>150</v>
@@ -2614,10 +2655,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2637,10 +2678,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2648,13 +2689,13 @@
         <v>9001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="F6" s="5">
         <v>1100</v>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23265" windowHeight="10455" tabRatio="809" activeTab="9"/>
+    <workbookView windowWidth="25350" windowHeight="10455" tabRatio="809" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="修改属性类行为1000" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>真言术：痛，对一个敌方单位21内总计造成1575点暗影伤害</t>
+  </si>
+  <si>
+    <t>顺劈斩，前方180度扇形范围造成250点伤害</t>
   </si>
   <si>
     <t>Speed</t>
@@ -1280,7 +1283,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1489,8 +1492,8 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1553,13 +1556,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
@@ -1579,13 +1582,13 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -1593,19 +1596,19 @@
         <v>10001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>72</v>
       </c>
       <c r="F6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -1625,10 +1628,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1800,6 +1803,23 @@
       <c r="F10" s="13">
         <f>1575/21*3</f>
         <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="13">
+        <v>2007</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="13">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -1886,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1906,7 +1926,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1914,13 +1934,13 @@
         <v>3001</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="14" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>37</v>
       </c>
       <c r="F6" s="14">
         <v>12</v>
@@ -1943,7 +1963,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -2010,7 +2030,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -2030,7 +2050,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -2038,10 +2058,10 @@
         <v>4001</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" s="14">
         <v>120001</v>
@@ -2131,10 +2151,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2154,10 +2174,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2165,10 +2185,10 @@
         <v>5001</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F6" s="14">
         <v>3</v>
@@ -2264,13 +2284,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
@@ -2290,13 +2310,13 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -2304,10 +2324,10 @@
         <v>6001</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F6" s="14">
         <v>3</v>
@@ -2403,10 +2423,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2426,10 +2446,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2437,13 +2457,13 @@
         <v>7001</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>56</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="F6" s="13">
         <v>5</v>
@@ -2469,7 +2489,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -2532,7 +2552,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -2552,7 +2572,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -2560,13 +2580,13 @@
         <v>8001</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>59</v>
       </c>
       <c r="F6" s="5">
         <v>150</v>
@@ -2589,7 +2609,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -2655,10 +2675,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2678,10 +2698,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2689,13 +2709,13 @@
         <v>9001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="F6" s="5">
         <v>1100</v>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25350" windowHeight="10455" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="25350" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="修改属性类行为1000" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="80">
   <si>
     <t>##var</t>
   </si>
@@ -117,6 +117,18 @@
   </si>
   <si>
     <t>减速，降低敌方移动速度50%</t>
+  </si>
+  <si>
+    <t>眩晕，2s内无法行动</t>
+  </si>
+  <si>
+    <t>禁止移动</t>
+  </si>
+  <si>
+    <t>禁止转向</t>
+  </si>
+  <si>
+    <t>沉默</t>
   </si>
   <si>
     <t>AdditionalDamage</t>
@@ -1280,10 +1292,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
@@ -1473,6 +1485,42 @@
       </c>
       <c r="G10" s="18">
         <v>-50000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="18">
+        <v>1005</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="6:7">
+      <c r="F12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="6:7">
+      <c r="F13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1556,13 +1604,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
@@ -1582,13 +1630,13 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -1596,19 +1644,19 @@
         <v>10001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -1630,7 +1678,7 @@
   <sheetPr/>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1696,7 +1744,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1716,7 +1764,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" s="18" customFormat="1" spans="2:6">
@@ -1724,13 +1772,13 @@
         <v>2002</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F6" s="18">
         <v>100</v>
@@ -1741,13 +1789,13 @@
         <v>2003</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F7" s="18">
         <v>200</v>
@@ -1758,13 +1806,13 @@
         <v>2004</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" s="13">
         <v>200</v>
@@ -1775,13 +1823,13 @@
         <v>2005</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D9" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="13">
         <v>500</v>
@@ -1792,13 +1840,13 @@
         <v>2006</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" s="13">
         <f>1575/21*3</f>
@@ -1810,13 +1858,13 @@
         <v>2007</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F11" s="13">
         <v>250</v>
@@ -1906,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1926,7 +1974,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1934,13 +1982,13 @@
         <v>3001</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F6" s="14">
         <v>12</v>
@@ -2030,7 +2078,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -2050,7 +2098,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -2058,10 +2106,10 @@
         <v>4001</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F6" s="14">
         <v>120001</v>
@@ -2151,10 +2199,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2174,10 +2222,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2185,10 +2233,10 @@
         <v>5001</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F6" s="14">
         <v>3</v>
@@ -2284,13 +2332,13 @@
         <v>11</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
@@ -2310,13 +2358,13 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -2324,10 +2372,10 @@
         <v>6001</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F6" s="14">
         <v>3</v>
@@ -2423,10 +2471,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2446,10 +2494,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2457,13 +2505,13 @@
         <v>7001</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F6" s="13">
         <v>5</v>
@@ -2552,7 +2600,7 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -2572,7 +2620,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -2580,13 +2628,13 @@
         <v>8001</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F6" s="5">
         <v>150</v>
@@ -2675,10 +2723,10 @@
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2698,10 +2746,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2709,13 +2757,13 @@
         <v>9001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F6" s="5">
         <v>1100</v>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -1295,7 +1295,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25350" windowHeight="10455" tabRatio="809"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="修改属性类行为1000" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="86">
   <si>
     <t>##var</t>
   </si>
@@ -129,6 +129,24 @@
   </si>
   <si>
     <t>沉默</t>
+  </si>
+  <si>
+    <t>圣盾术，无法被技能选择为目标</t>
+  </si>
+  <si>
+    <t>禁止选择</t>
+  </si>
+  <si>
+    <t>争分夺秒，提高施法速度15%</t>
+  </si>
+  <si>
+    <t>施法速度</t>
+  </si>
+  <si>
+    <t>圣言术：盾，给玩家添加吸收1000伤害的盾</t>
+  </si>
+  <si>
+    <t>护盾</t>
   </si>
   <si>
     <t>AdditionalDamage</t>
@@ -910,7 +928,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -932,26 +950,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1292,22 +1304,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="18" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="18" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="18" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="18" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="18"/>
+    <col min="1" max="1" width="12.75" style="16" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="16" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="40.875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="16" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1323,17 +1335,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1342,33 +1354,33 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="B3" s="10"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="6" t="s">
@@ -1393,134 +1405,194 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="18" customFormat="1" spans="2:5">
-      <c r="B6" s="18">
+    <row r="6" s="16" customFormat="1" spans="2:5">
+      <c r="B6" s="16">
         <v>0</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" spans="2:7">
-      <c r="B7" s="18">
+    <row r="7" s="16" customFormat="1" spans="2:7">
+      <c r="B7" s="16">
         <v>1001</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="16">
         <v>50000</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1" spans="2:7">
-      <c r="B8" s="18">
+    <row r="8" s="16" customFormat="1" spans="2:7">
+      <c r="B8" s="16">
         <v>1002</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="16">
         <v>200</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="1" spans="2:7">
-      <c r="B9" s="18">
+    <row r="9" s="16" customFormat="1" spans="2:7">
+      <c r="B9" s="16">
         <v>1003</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="16">
         <v>308</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="18">
+      <c r="B10" s="16">
         <v>1004</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="16">
         <v>-50000</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="18">
+      <c r="B11" s="16">
         <v>1005</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="16">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="16">
+        <v>1006</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="16">
+        <v>1007</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="16">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="16">
+        <v>1008</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1613,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1555,7 +1627,7 @@
     <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1568,15 +1640,18 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1585,32 +1660,35 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:8">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="11"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
@@ -1630,13 +1708,13 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:8">
@@ -1644,19 +1722,19 @@
         <v>10001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
@@ -1679,18 +1757,18 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="10.375" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="13" customWidth="1"/>
-    <col min="4" max="4" width="55.875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="15" style="13" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="10.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="55.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1706,16 +1784,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1724,27 +1802,27 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="11"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1764,109 +1842,109 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" s="18" customFormat="1" spans="2:6">
-      <c r="B6" s="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" s="16" customFormat="1" spans="2:6">
+      <c r="B6" s="16">
         <v>2002</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="18">
+      <c r="C6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="16">
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="18" customFormat="1" spans="2:6">
-      <c r="B7" s="18">
+    <row r="7" s="16" customFormat="1" spans="2:6">
+      <c r="B7" s="16">
         <v>2003</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="18">
+      <c r="C7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="16">
         <v>200</v>
       </c>
     </row>
-    <row r="8" s="13" customFormat="1" spans="2:6">
-      <c r="B8" s="13">
+    <row r="8" s="5" customFormat="1" spans="2:6">
+      <c r="B8" s="5">
         <v>2004</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="C8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="13">
+      <c r="B9" s="5">
         <v>2005</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="C9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="13">
+      <c r="B10" s="5">
         <v>2006</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="C10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="5">
         <f>1575/21*3</f>
         <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="13">
+      <c r="B11" s="5">
         <v>2007</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="D11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="5">
         <v>250</v>
       </c>
     </row>
@@ -1892,13 +1970,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="12" style="14" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="14" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="14" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="9.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12" style="12" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="12" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1914,16 +1992,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1932,29 +2010,29 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="10"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>40</v>
+      <c r="F4" s="15" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -1974,23 +2052,23 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>3001</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="C6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="12">
         <v>12</v>
       </c>
     </row>
@@ -2016,13 +2094,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="14" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="15" style="14" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="9.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="15" style="12" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -2038,16 +2116,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2056,29 +2134,29 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="10"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>44</v>
+      <c r="F4" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -2098,20 +2176,20 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>4001</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="C6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="12">
         <v>120001</v>
       </c>
     </row>
@@ -2132,15 +2210,15 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="4" width="9" style="14"/>
-    <col min="5" max="5" width="14.375" style="14" customWidth="1"/>
-    <col min="6" max="7" width="15.5" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="14"/>
+    <col min="1" max="4" width="9" style="12"/>
+    <col min="5" max="5" width="14.375" style="12" customWidth="1"/>
+    <col min="6" max="7" width="15.5" style="12" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -2156,17 +2234,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2175,34 +2253,34 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:7">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
+      <c r="B3" s="10"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="11"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2222,26 +2300,26 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>5001</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="C6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="12">
         <v>3</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2267,12 +2345,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="14" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="14" customWidth="1"/>
-    <col min="5" max="8" width="14.625" style="14" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="9.5" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="12" customWidth="1"/>
+    <col min="5" max="8" width="14.625" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -2288,18 +2366,18 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:8">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2308,37 +2386,37 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:6">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="10"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:8">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="11"/>
+      <c r="E4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>52</v>
+      <c r="F4" s="15" t="s">
+        <v>58</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:8">
@@ -2358,32 +2436,32 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <v>6001</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="C6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="12">
         <v>3</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="12">
         <v>0</v>
       </c>
-      <c r="H6" s="14">
+      <c r="H6" s="12">
         <v>40005</v>
       </c>
     </row>
@@ -2404,18 +2482,18 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="10.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="13" customWidth="1"/>
-    <col min="4" max="5" width="10.5" style="13" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="13" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="10.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="10.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -2431,17 +2509,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2450,31 +2528,31 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="11"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2494,29 +2572,29 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="13">
+      <c r="B6" s="5">
         <v>7001</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="5">
         <v>5</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="5">
         <v>40005</v>
       </c>
     </row>
@@ -2537,7 +2615,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -2551,7 +2629,7 @@
     <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
+    <row r="1" s="1" customFormat="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -2564,15 +2642,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2581,26 +2660,27 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="11"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
@@ -2620,21 +2700,21 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="5">
         <v>8001</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>64</v>
+      <c r="C6" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>64</v>
+        <v>71</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="F6" s="5">
         <v>150</v>
@@ -2683,17 +2763,17 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" s="2" customFormat="1" spans="1:7">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2702,31 +2782,31 @@
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="11"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
@@ -2746,10 +2826,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -2757,13 +2837,13 @@
         <v>9001</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F6" s="5">
         <v>1100</v>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="25590" windowHeight="10740" tabRatio="809" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="修改属性类行为1000" sheetId="6" r:id="rId1"/>
@@ -928,7 +928,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -974,6 +974,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1306,20 +1309,20 @@
   <sheetPr/>
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="16" customWidth="1"/>
-    <col min="2" max="2" width="16.75" style="16" customWidth="1"/>
-    <col min="3" max="3" width="16.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="40.875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="12.75" style="17" customWidth="1"/>
+    <col min="2" max="2" width="16.75" style="17" customWidth="1"/>
+    <col min="3" max="3" width="16.125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="40.875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="22.5" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -1405,193 +1408,193 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" s="16" customFormat="1" spans="2:5">
-      <c r="B6" s="16">
+    <row r="6" s="17" customFormat="1" spans="2:5">
+      <c r="B6" s="17">
         <v>0</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" s="16" customFormat="1" spans="2:7">
-      <c r="B7" s="16">
+    <row r="7" s="17" customFormat="1" spans="2:7">
+      <c r="B7" s="17">
         <v>1001</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="17">
         <v>50000</v>
       </c>
     </row>
-    <row r="8" s="16" customFormat="1" spans="2:7">
-      <c r="B8" s="16">
+    <row r="8" s="17" customFormat="1" spans="2:7">
+      <c r="B8" s="17">
         <v>1002</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="9" s="16" customFormat="1" spans="2:7">
-      <c r="B9" s="16">
+    <row r="9" s="17" customFormat="1" spans="2:7">
+      <c r="B9" s="17">
         <v>1003</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="17">
         <v>308</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="16">
+      <c r="B10" s="17">
         <v>1004</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="17">
         <v>-50000</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="16">
+      <c r="B11" s="17">
         <v>1005</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="6:7">
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="6:7">
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="16">
+      <c r="B14" s="17">
         <v>1006</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="16">
+      <c r="B15" s="17">
         <v>1007</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="17">
         <v>1500</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="16">
+      <c r="B16" s="17">
         <v>1008</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="17">
         <v>1000</v>
       </c>
     </row>
@@ -1757,7 +1760,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -1845,37 +1848,37 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" s="16" customFormat="1" spans="2:6">
-      <c r="B6" s="16">
+    <row r="6" s="17" customFormat="1" spans="2:6">
+      <c r="B6" s="17">
         <v>2002</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="7" s="16" customFormat="1" spans="2:6">
-      <c r="B7" s="16">
+    <row r="7" s="17" customFormat="1" spans="2:6">
+      <c r="B7" s="17">
         <v>2003</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="17">
         <v>200</v>
       </c>
     </row>
@@ -1883,13 +1886,13 @@
       <c r="B8" s="5">
         <v>2004</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="5">
@@ -1900,13 +1903,13 @@
       <c r="B9" s="5">
         <v>2005</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="5">
@@ -1917,13 +1920,13 @@
       <c r="B10" s="5">
         <v>2006</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="5">
@@ -1935,13 +1938,13 @@
       <c r="B11" s="5">
         <v>2007</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="17" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="5">
@@ -2210,15 +2213,18 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="4" width="9" style="12"/>
-    <col min="5" max="5" width="14.375" style="12" customWidth="1"/>
-    <col min="6" max="7" width="15.5" style="12" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="2" width="11" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="16" customWidth="1"/>
+    <col min="6" max="7" width="15.5" style="16" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -2259,14 +2265,11 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:7">
+    <row r="3" s="3" customFormat="1" spans="1:2">
       <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
       <c r="A4" s="11" t="s">
@@ -2307,19 +2310,19 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="12">
+      <c r="B6" s="16">
         <v>5001</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="16">
         <v>3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="16">
         <v>3</v>
       </c>
     </row>
@@ -2339,8 +2342,8 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -2446,7 +2449,7 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="12">
+      <c r="B6" s="16">
         <v>6001</v>
       </c>
       <c r="C6" s="12" t="s">
@@ -2455,13 +2458,13 @@
       <c r="E6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="16">
         <v>3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="16">
         <v>0</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="16">
         <v>40005</v>
       </c>
     </row>
@@ -2482,7 +2485,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E2" sqref="E2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -2615,7 +2618,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>

--- a/Unity/Assets/Config/Excel/ActionConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ActionConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25590" windowHeight="10740" tabRatio="809" activeTab="5"/>
+    <workbookView windowWidth="25590" windowHeight="10740" tabRatio="809" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="修改属性类行为1000" sheetId="6" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="治疗类8000" sheetId="13" r:id="rId8"/>
     <sheet name="复活类9000" sheetId="14" r:id="rId9"/>
     <sheet name="驱散行为10000" sheetId="15" r:id="rId10"/>
+    <sheet name="嘲讽行为11000" sheetId="16" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="89">
   <si>
     <t>##var</t>
   </si>
@@ -294,6 +295,15 @@
   </si>
   <si>
     <t>疾病</t>
+  </si>
+  <si>
+    <t>Hatred</t>
+  </si>
+  <si>
+    <t>附加仇恨值</t>
+  </si>
+  <si>
+    <t>嘲讽行为</t>
   </si>
 </sst>
 </file>
@@ -962,21 +972,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1368,22 +1378,22 @@
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="12"/>
+      <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="6" t="s">
@@ -1616,18 +1626,18 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A1" sqref="$A1:$XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="2" width="9" style="5"/>
-    <col min="3" max="3" width="12.125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="2" width="9" style="13"/>
+    <col min="3" max="3" width="12.125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1677,10 +1687,10 @@
       <c r="B3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:8">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1721,25 +1731,25 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="5">
+      <c r="B6" s="13">
         <v>10001</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="5" t="b">
+      <c r="F6" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="13">
         <v>1</v>
       </c>
     </row>
@@ -1748,6 +1758,127 @@
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.875" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:6">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:6">
+      <c r="A2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:6">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:6">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="5">
+        <v>11001</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="5">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1765,13 +1896,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="10.375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="55.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.625" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="10.375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55.875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="15" style="13" customWidth="1"/>
+    <col min="6" max="6" width="22.625" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -1817,10 +1948,10 @@
       <c r="B3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
@@ -1882,72 +2013,72 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" spans="2:6">
-      <c r="B8" s="5">
+    <row r="8" s="13" customFormat="1" spans="2:6">
+      <c r="B8" s="13">
         <v>2004</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="13">
         <v>200</v>
       </c>
     </row>
     <row r="9" spans="2:6">
-      <c r="B9" s="5">
+      <c r="B9" s="13">
         <v>2005</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="13" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="13">
         <v>500</v>
       </c>
     </row>
     <row r="10" spans="2:6">
-      <c r="B10" s="5">
+      <c r="B10" s="13">
         <v>2006</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="13" t="s">
         <v>44</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="13">
         <f>1575/21*3</f>
         <v>225</v>
       </c>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="5">
+      <c r="B11" s="13">
         <v>2007</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="13">
         <v>250</v>
       </c>
     </row>
@@ -1973,13 +2104,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12" style="12" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="12" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="12" style="14" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="14" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="14" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -2023,18 +2154,18 @@
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="12"/>
+      <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2059,19 +2190,19 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>3001</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>12</v>
       </c>
     </row>
@@ -2097,13 +2228,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="15" style="12" customWidth="1"/>
-    <col min="6" max="6" width="19.375" style="12" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="14" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="14" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="14" customWidth="1"/>
+    <col min="5" max="5" width="15" style="14" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -2147,18 +2278,18 @@
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="12"/>
+      <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2183,16 +2314,16 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="12">
+      <c r="B6" s="14">
         <v>4001</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>120001</v>
       </c>
     </row>
@@ -2218,13 +2349,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="2" width="11" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="16" customWidth="1"/>
-    <col min="6" max="7" width="15.5" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="11" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="13" customWidth="1"/>
+    <col min="6" max="7" width="15.5" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -2272,10 +2403,10 @@
       <c r="B3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
@@ -2310,19 +2441,19 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>5001</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="13">
         <v>3</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2342,18 +2473,18 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="12" customWidth="1"/>
-    <col min="5" max="8" width="14.625" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="9.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="12.125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="14" customWidth="1"/>
+    <col min="5" max="8" width="14.625" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -2401,18 +2532,18 @@
         <v>10</v>
       </c>
       <c r="B3" s="10"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:8">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="E4" s="14" t="s">
+      <c r="B4" s="12"/>
+      <c r="E4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -2449,22 +2580,22 @@
       </c>
     </row>
     <row r="6" spans="2:8">
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>6001</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="13">
         <v>3</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="13">
         <v>0</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="13">
         <v>40005</v>
       </c>
     </row>
@@ -2490,13 +2621,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="10.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="10.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="11.375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="10.5" style="13" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="13" customWidth="1"/>
+    <col min="4" max="5" width="10.5" style="13" customWidth="1"/>
+    <col min="6" max="6" width="11.375" style="13" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -2544,10 +2675,10 @@
       <c r="B3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
@@ -2582,22 +2713,22 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="5">
+      <c r="B6" s="13">
         <v>7001</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="13">
         <v>5</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="13">
         <v>40005</v>
       </c>
     </row>
@@ -2623,13 +2754,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="2" width="11" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12" style="5" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="2" width="11" style="13" customWidth="1"/>
+    <col min="3" max="3" width="12" style="13" customWidth="1"/>
+    <col min="4" max="4" width="29.125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="14.375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="17.125" style="13" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -2675,10 +2806,10 @@
       <c r="B3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:6">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
@@ -2707,19 +2838,19 @@
       </c>
     </row>
     <row r="6" spans="2:6">
-      <c r="B6" s="5">
+      <c r="B6" s="13">
         <v>8001</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="13">
         <v>150</v>
       </c>
     </row>
@@ -2745,12 +2876,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="9" style="5"/>
-    <col min="4" max="4" width="47.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.875" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="5"/>
+    <col min="1" max="3" width="9" style="13"/>
+    <col min="4" max="4" width="47.875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="13" customWidth="1"/>
+    <col min="7" max="7" width="10.875" style="13" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
@@ -2798,10 +2929,10 @@
       <c r="B3" s="10"/>
     </row>
     <row r="4" s="4" customFormat="1" spans="1:7">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11"/>
+      <c r="B4" s="12"/>
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
@@ -2836,22 +2967,22 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="5">
+      <c r="B6" s="13">
         <v>9001</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="13">
         <v>1100</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="13">
         <v>1150</v>
       </c>
     </row>
